--- a/graph.xlsx
+++ b/graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u26y40\streamlit-sales-dashboard-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815AF02A-A864-4A2A-84A1-0CD9B0953308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27649E2B-5F7A-4581-8601-113C4522D1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Sales 2021</t>
   </si>
@@ -211,6 +211,80 @@
 ax.set(xlim=(0, 8), xticks=np.arange(1, 8),
        ylim=(0, 8), yticks=np.arange(1, 8))
 st.pyplot(plt) </t>
+  </si>
+  <si>
+    <t>x=[0, 1, 2, 3, 4, 5, 6]
+y=[0, 2, 4, 5, 5.5, 7, 9]
+fig = px.scatter(x, y)
+st.write(fig)</t>
+  </si>
+  <si>
+    <t>x=[0, 1, 2, 3, 4, 5, 6]
+y=[0, 2, 4, 5, 5.5, 7, 9]
+fig = px.scatter(x, y)
+fig.show()</t>
+  </si>
+  <si>
+    <t>import plotly.express as px
+df1 = px.data.iris()
+fig = px.scatter(df1, x="sepal_width", y="sepal_length", color="species")
+fig.show()</t>
+  </si>
+  <si>
+    <t>import plotly.express as px
+df1 = px.data.iris()
+fig = px.scatter(df1, x="sepal_width", y="sepal_length", color="species")
+st.write(fig)</t>
+  </si>
+  <si>
+    <t>import plotly.express as px
+df1 = px.data.iris()
+fig = px.scatter(df1, y="petal_length", x="petal_width", color="species", symbol="species")
+fig.update_traces(marker_size=10)
+fig.show()</t>
+  </si>
+  <si>
+    <t>import plotly.express as px
+df1 = px.data.iris()
+fig = px.scatter(df1, y="petal_length", x="petal_width", color="species", symbol="species")
+fig.update_traces(marker_size=10)
+st.write(fig)</t>
+  </si>
+  <si>
+    <t>import plotly.express as px
+df = px.data.gapminder().query("year == 2007")
+fig = px.sunburst(df, path=['continent', 'country'], values='pop',
+                  color='lifeExp', hover_data=['iso_alpha'])
+fig.show()</t>
+  </si>
+  <si>
+    <t>import plotly.express as px
+df = px.data.gapminder().query("year == 2007")
+fig = px.sunburst(df, path=['continent', 'country'], values='pop',
+                  color='lifeExp', hover_data=['iso_alpha'])
+st.write(fig)</t>
+  </si>
+  <si>
+    <t>Sunburst Plot</t>
+  </si>
+  <si>
+    <t>import plotly.express as px
+import numpy as np
+df = px.data.gapminder().query("year == 2007")
+fig = px.treemap(df, path=[px.Constant('world'), 'continent', 'country'], values='pop',
+                  color='lifeExp', hover_data=['iso_alpha'])
+fig.show()</t>
+  </si>
+  <si>
+    <t>import plotly.express as px
+import numpy as np
+df = px.data.gapminder().query("year == 2007")
+fig = px.treemap(df, path=[px.Constant('world'), 'continent', 'country'], values='pop',
+                  color='lifeExp', hover_data=['iso_alpha'])
+st.write(fig)</t>
+  </si>
+  <si>
+    <t>Treemap</t>
   </si>
 </sst>
 </file>
@@ -735,11 +809,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1165,10 +1239,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:F11"/>
+  <dimension ref="B1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1183,11 +1257,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="2:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:6" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1256,22 +1330,28 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1284,10 +1364,10 @@
       <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1301,11 +1381,79 @@
       <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
